--- a/PCSCorp_Ltd_ActivityTracker.xlsx
+++ b/PCSCorp_Ltd_ActivityTracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Sl.no</t>
   </si>
@@ -46,6 +46,117 @@
   </si>
   <si>
     <t>#Error</t>
+  </si>
+  <si>
+    <t>12.11.2020</t>
+  </si>
+  <si>
+    <t>ProjectStructure</t>
+  </si>
+  <si>
+    <t>Created Required pacakges with respective class and Database Structure</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>20.11.2020</t>
+  </si>
+  <si>
+    <t>5.30PM</t>
+  </si>
+  <si>
+    <t>5.00PM</t>
+  </si>
+  <si>
+    <t>Getters,Setters &amp; ToString</t>
+  </si>
+  <si>
+    <t>All Model Classes</t>
+  </si>
+  <si>
+    <t>19.11.2020</t>
+  </si>
+  <si>
+    <t>12.00PM</t>
+  </si>
+  <si>
+    <t>JDBC Connection</t>
+  </si>
+  <si>
+    <t>Established JDBC Connection</t>
+  </si>
+  <si>
+    <t>21.11.2020</t>
+  </si>
+  <si>
+    <t>Database creation</t>
+  </si>
+  <si>
+    <t>Created Database in MySql for all tables</t>
+  </si>
+  <si>
+    <t>12.30PM</t>
+  </si>
+  <si>
+    <t>Function Implementation</t>
+  </si>
+  <si>
+    <t>Implementing Function to all  packages</t>
+  </si>
+  <si>
+    <t>10.00AM</t>
+  </si>
+  <si>
+    <t>27.11.2020</t>
+  </si>
+  <si>
+    <t>8.00PM</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Creating Controller for Emp,Job and Skill</t>
+  </si>
+  <si>
+    <t>28.11.2020</t>
+  </si>
+  <si>
+    <t>11.00Am</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Testing  control methods</t>
+  </si>
+  <si>
+    <t>29.11.2020</t>
+  </si>
+  <si>
+    <t>View Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating View Package for Emp,Job,Skill </t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Creating Login frame</t>
+  </si>
+  <si>
+    <t>30.11.2020</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Started Documentation</t>
   </si>
 </sst>
 </file>
@@ -377,16 +488,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" customWidth="1"/>
     <col min="7" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
@@ -423,8 +536,245 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
